--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a4acff5f6c742be/Documentos/UiPath/Prj_Integracao_Reframework/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{878A2873-0DF5-4FC3-919A-4DE90C6FB25B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EF96986C-0611-4B9B-99FF-A5C0A2964B69}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
